--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_NhatQuang.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>112.078.011.007,13368</t>
+  </si>
+  <si>
+    <t>LE4.1.00.---06.200724</t>
   </si>
 </sst>
 </file>
@@ -628,6 +634,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -645,30 +675,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,7 +986,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" activeCellId="1" sqref="B6:B7 C6:C7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1012,43 +1018,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1093,58 +1099,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1169,23 +1175,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1239,7 +1245,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1296,7 +1302,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1306,16 +1312,28 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="54">
+        <v>44799</v>
+      </c>
       <c r="C8" s="54"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="D8" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="38">
+        <v>862205051186536</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="51" t="s">
+        <v>75</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
+      <c r="K8" s="55" t="s">
+        <v>76</v>
+      </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
       <c r="N8" s="1"/>
@@ -1325,7 +1343,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1354,7 +1372,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1383,7 +1401,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1412,7 +1430,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1441,7 +1459,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1472,7 +1490,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1501,7 +1519,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1530,7 +1548,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1559,7 +1577,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3275,13 +3293,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3293,6 +3304,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3336,43 +3354,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3417,58 +3435,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3493,23 +3511,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="59"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="73"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="72"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3535,7 +3553,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3566,7 +3584,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3595,7 +3613,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3624,7 +3642,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3653,7 +3671,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3682,7 +3700,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3711,7 +3729,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3742,7 +3760,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3771,7 +3789,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3800,7 +3818,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3829,7 +3847,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5060,6 +5078,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5071,13 +5096,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_NhatQuang.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -634,6 +634,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,32 +673,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1018,43 +1018,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1099,58 +1099,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1175,23 +1175,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1334,16 +1334,28 @@
       <c r="K8" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="L8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1372,7 +1384,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1401,7 +1413,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1430,7 +1442,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1459,7 +1471,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1490,7 +1502,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1519,7 +1531,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1548,7 +1560,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1577,7 +1589,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1695,7 +1707,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2164,7 +2176,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2228,7 +2240,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3293,6 +3305,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3304,13 +3323,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3354,43 +3366,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3435,58 +3447,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="59" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3511,23 +3523,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="59"/>
       <c r="P5" s="73"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="66"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3553,7 +3565,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3584,7 +3596,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3613,7 +3625,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3642,7 +3654,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3671,7 +3683,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3700,7 +3712,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3729,7 +3741,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3760,7 +3772,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3789,7 +3801,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3818,7 +3830,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3847,7 +3859,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5078,13 +5090,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5096,6 +5101,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_NhatQuang.xlsx
@@ -634,6 +634,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -651,30 +675,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:R8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1018,43 +1018,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1099,58 +1099,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1175,23 +1175,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1315,7 +1315,9 @@
       <c r="B8" s="54">
         <v>44799</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44803</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>56</v>
       </c>
@@ -1355,7 +1357,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1384,7 +1386,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1413,7 +1415,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1442,7 +1444,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1471,7 +1473,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1502,7 +1504,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1531,7 +1533,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1560,7 +1562,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1589,7 +1591,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3305,13 +3307,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3323,6 +3318,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3366,43 +3368,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3447,58 +3449,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3523,23 +3525,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="59"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="73"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="72"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3565,7 +3567,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3596,7 +3598,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3625,7 +3627,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3654,7 +3656,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3683,7 +3685,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3712,7 +3714,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3741,7 +3743,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3772,7 +3774,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3801,7 +3803,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3830,7 +3832,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3859,7 +3861,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5090,6 +5092,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5101,13 +5110,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_NhatQuang.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>LE4.1.00.---06.200724</t>
+  </si>
+  <si>
+    <t>Thay MCU</t>
+  </si>
+  <si>
+    <t>Thiết bị chốt sim chậm</t>
+  </si>
+  <si>
+    <t>TG102LE-4G (STM)</t>
   </si>
 </sst>
 </file>
@@ -634,6 +643,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,32 +682,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -986,7 +995,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1018,43 +1027,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1099,58 +1108,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1175,23 +1184,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,7 +1254,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1302,7 +1311,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1316,10 +1325,10 @@
         <v>44799</v>
       </c>
       <c r="C8" s="54">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E8" s="38">
         <v>862205051186536</v>
@@ -1332,7 +1341,9 @@
       <c r="I8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K8" s="55" t="s">
         <v>76</v>
       </c>
@@ -1340,7 +1351,7 @@
         <v>61</v>
       </c>
       <c r="M8" s="39" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
@@ -1350,14 +1361,14 @@
         <v>70</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +1397,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1415,7 +1426,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1444,7 +1455,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1473,7 +1484,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1504,7 +1515,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1533,7 +1544,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1562,7 +1573,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1591,7 +1602,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1709,7 +1720,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1773,7 +1784,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -1890,7 +1901,7 @@
       </c>
       <c r="V26" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="13"/>
     </row>
@@ -2178,7 +2189,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -3307,6 +3318,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3318,13 +3336,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3368,43 +3379,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3449,58 +3460,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="59" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3525,23 +3536,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="59"/>
       <c r="P5" s="73"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="66"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3567,7 +3578,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3598,7 +3609,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3627,7 +3638,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3656,7 +3667,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3685,7 +3696,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3714,7 +3725,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3743,7 +3754,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3774,7 +3785,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3803,7 +3814,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3832,7 +3843,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3861,7 +3872,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5092,13 +5103,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5110,6 +5114,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
